--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes-template.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC55481C-8CC2-47F4-A2D2-4670F4D25ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D753AD-07C0-4BE1-B78F-6755083830E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="330" windowWidth="16920" windowHeight="22935" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="10695" yWindow="3960" windowWidth="27555" windowHeight="18855" activeTab="1" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7087082-0DF5-4E46-83F8-2BC823456A8D}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
@@ -513,8 +513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CE5973-9CA6-4EAA-9B01-DA5B33B67164}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes-template.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes-template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D753AD-07C0-4BE1-B78F-6755083830E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C839B65-825B-4F9C-BE09-3820C69E56A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="3960" windowWidth="27555" windowHeight="18855" activeTab="1" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="82485" yWindow="2415" windowWidth="31200" windowHeight="19320" activeTab="1" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
     <sheet name="Template" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -139,12 +144,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -172,6 +183,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,14 +510,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -514,16 +532,16 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -541,7 +559,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -575,7 +593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -605,7 +623,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -627,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -649,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -671,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -693,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -715,29 +733,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="6"/>
-      <c r="M9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -759,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -781,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -803,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -825,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -847,29 +868,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="6"/>
-      <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -891,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -913,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -935,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -957,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -979,29 +1003,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="6"/>
-      <c r="M21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1023,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1045,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1067,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1089,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1111,29 +1138,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="6"/>
-      <c r="M27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1155,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1177,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1199,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1221,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1243,29 +1273,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="6"/>
-      <c r="M33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1287,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1309,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1331,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1353,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1375,29 +1408,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="6"/>
-      <c r="M39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1419,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1441,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1463,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1485,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1507,29 +1543,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="6"/>
-      <c r="M45" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -1551,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -1573,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -1595,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -1617,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -1639,29 +1678,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="6"/>
-      <c r="M51" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -1683,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -1705,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -1727,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -1749,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -1771,29 +1813,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="6"/>
-      <c r="M57" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -1815,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -1837,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -1859,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -1881,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -1903,29 +1948,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="6"/>
-      <c r="M63" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -1947,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -1969,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -1991,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2013,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2035,29 +2083,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="6"/>
-      <c r="M69" s="2">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="12">
         <f t="shared" ref="M69:M72" si="2">B69*C69/1000 -D69</f>
         <v>0</v>
       </c>
-      <c r="O69">
+      <c r="N69" s="11"/>
+      <c r="O69" s="11">
         <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2079,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2101,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2123,13 +2174,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
